--- a/biology/Médecine/Syndicat_national_des_cadres_du_secteur_sanitaire_et_social/Syndicat_national_des_cadres_du_secteur_sanitaire_et_social.xlsx
+++ b/biology/Médecine/Syndicat_national_des_cadres_du_secteur_sanitaire_et_social/Syndicat_national_des_cadres_du_secteur_sanitaire_et_social.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Syndicat national des cadres du secteur sanitaire et social (SNC3S) est un syndicat français dépendant de la Confédération française de l'encadrement - Confédération générale des cadres (CFE-CGC).
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SNC3S est créé en 1951 et se compose essentiellement de :
 directeurs
@@ -549,7 +563,9 @@
           <t>Présidents</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean-Luc Joing: 1984 - 1988
 Jean-Jacques Vauléon : 1988 - 1994
@@ -582,7 +598,9 @@
           <t>Secrétaires Généraux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Honore: 1982 - 1988
 Marie-Claude Batteux: 1988 - 1994
@@ -615,7 +633,9 @@
           <t>Trésoriers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Claude Maillard: 1982 - 1992
 Khebira Daoud: 1992 - 2000
@@ -648,7 +668,9 @@
           <t>Actions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La représentation et la défense des intérêts collectifs des cadres du secteur sanitaire, social et médico-social. Des membres du SNC3S participent aux commissions paritaires de négociation des différentes conventions collectives, aux commissions liées à la formation professionnelle, au CNOSS, au CSTS, à l'ANESM….
 La défense des intérêts individuels et l’aide aux adhérents. Le SNC3S développe une aide de proximité par le conseil, les nouveaux moyens de communication et la présence dans les régions pour défendre ses adhérents.
@@ -680,7 +702,9 @@
           <t>Valeurs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le SNC3S déclare qu'elle fait la promotion de :
 l'équité dans le travail en donnant à chacun sa place en tant qu'acteur de la vie sociale et citoyenne
@@ -716,7 +740,9 @@
           <t>Le SNC3S et la syndicalisation des cadres</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La loi d'août 2008 venant modifier le système de représentativité pose au  SNC3S la question de la syndicalisation des cadres.  Les mobiles qui motivent l'état dans la mise en place de cette réforme reposent essentiellement sur un contingentement d'"obstacles". Le droit qui s'imposait à tous tend à s'effacer devant les accords d'entreprises. La représentativité des confédérations, en étant liée aux résultats dans l'entreprise, répond à cette évolution. L’avenir des confédérations repose sur l'élaboration d'une nouvelle conception du dialogue social qui doit être d’une manière plus large la participation à la vie de l'entreprise, aux recherches d'orientations et à l'élaboration de décisions. 
 Les salariés attendent beaucoup du positionnement des cadres : moments de restructurations, de changements, négociations de modifications conventionnelles. Les cadres sont des acteurs essentiels au regard des instances gestionnaires des établissements et services. Le cadre dans sa position d'interface entre l'employeur et l'ensemble des salariés est attendu pour ce qu'il peut être : porteur des attentes de reconnaissance et de possibilités de participation. 
@@ -754,7 +780,9 @@
           <t>Actualités et secteurs</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Agences Régionales de Santé - ARS
 Depuis le 1er avril 2010, les Agences Régionales de Santé (ARS) sont des établissements publics régionaux français chargées de la mise en œuvre de la politique de santé dans la région. Ces établissements, créés en vertu de la loi n°2009-879 du 21 juillet 2009 dite « Hôpital, patients, santé et territoire » (HPST), ont pour but « d’assurer un pilotage unifié de la santé en région, de mieux répondre aux besoins de la population et d’accroître l’efficacité du système ».
@@ -801,7 +829,9 @@
           <t>Moyens d'action</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SNC3S met à disposition de ses adhérents un panel de services
 une permanence téléphonique
@@ -841,7 +871,9 @@
           <t>Les publications du SNC3S</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>La lettre d'infos, trimestriel
 La Newsletter, mensuel</t>
